--- a/biology/Botanique/Gordonia_(plante)/Gordonia_(plante).xlsx
+++ b/biology/Botanique/Gordonia_(plante)/Gordonia_(plante).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gordonia est un genre de plantes à fleurs de la famille des Theaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le genre compte environ 40 espèces, dont:
 Gordonia anomala
@@ -536,7 +550,7 @@
 Gordonia villosa
 Gordonia wallichii
 Gordonia yunnanensis
-Les espèces de Gordonia de l'Asie de l'Est sont transférées à Polyspora, dont[3] :
+Les espèces de Gordonia de l'Asie de l'Est sont transférées à Polyspora, dont :
 Polyspora acuminata
 Polyspora axillaris
 Polyspora chrysandra
@@ -572,7 +586,9 @@
           <t>Culture et utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Plusieurs espèces de Gordonia sont cultivées comme plantes d’ornement, pour les fleurs qu’elles produisent en hiver alors que peu d’arbres fleurissent à cette période. Cependant, elles sont plus difficiles à cultiver que les espèces du genre Camellia, qui donne des arbustes semblables mais plus petits.
 </t>
@@ -603,16 +619,18 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (1 août 2018)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (1 août 2018) :
 Gordonia axillaris (Roxb.) Dietr.
 Gordonia emanuelii Kovar-Eder †
 Gordonia hradekensis (Kvaček &amp; Bůžek) Bozukov &amp; Palamarev †
 Gordonia lasianthus (L.) Ellis
 Gordonia pannonica Kovar-Eder †
 Gordonia styriaca Kovar-Eder †
-Selon Catalogue of Life                                  (1 août 2018)[4] :
+Selon Catalogue of Life                                  (1 août 2018) :
 Gordonia alpestris (Krug &amp; Urban) H. Keng
 Gordonia angustifolia (Britt. &amp; Wils.) H. Keng
 Gordonia barbinervis (Moric.) Walp.
@@ -644,9 +662,9 @@
 Gordonia villosa Macfad.
 Gordonia wawoniensis (Rugayah &amp; Sunarti) comb. ined.
 Gordonia wrightii (Griseb.) H. Keng
-Selon GRIN            (1 août 2018)[5] et ITIS      (1 août 2018)[6] :
+Selon GRIN            (1 août 2018) et ITIS      (1 août 2018) :
 Gordonia lasianthus (L.) J. Ellis
-Selon The Plant List            (1 août 2018)[7] :
+Selon The Plant List            (1 août 2018) :
 Gordonia acutifolia (Wawra) H.Keng
 Gordonia alpestris (Krug &amp; Urb.) H.Keng
 Gordonia amboinensis (Miq.) Merr.
@@ -709,7 +727,7 @@
 Gordonia wrightii (Griseb.) H.Keng
 Gordonia yunnanensis (Hu) H.L.Li
 Gordonia zeylanica Wight
-Selon Tropicos                                           (1 août 2018)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (1 août 2018) (Attention liste brute contenant possiblement des synonymes) :
 Gordonia acuminata Choisy
 Gordonia acutifolia (Wawra) H. Keng
 Gordonia alpestris (Krug &amp; Urb.) H. Keng
